--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Intel Core2 CPU</t>
+  </si>
+  <si>
+    <t>Gigabit LAN Chip</t>
+  </si>
+  <si>
+    <t>Gigabit Platform LAN Connect</t>
   </si>
 </sst>
 </file>
@@ -210,12 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,6 +227,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M15"/>
+  <dimension ref="B3:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,20 +551,20 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21.75" thickBot="1">
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1">
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>4</v>
       </c>
     </row>
@@ -765,7 +774,7 @@
       <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>475053305</v>
       </c>
       <c r="K12">
@@ -850,6 +859,23 @@
       <c r="M15">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5">
+        <v>82566</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>Gigabit Platform LAN Connect</t>
+  </si>
+  <si>
+    <t>Gigabit Socket</t>
+  </si>
+  <si>
+    <t>USB Connector</t>
+  </si>
+  <si>
+    <t>BIOS EEPROM</t>
+  </si>
+  <si>
+    <t>Winbond</t>
+  </si>
+  <si>
+    <t>16Mbit W25X16BV EEPROM</t>
+  </si>
+  <si>
+    <t>W25X16BVDAI</t>
+  </si>
+  <si>
+    <t>SATA Data Connector</t>
+  </si>
+  <si>
+    <t>Connector for Signals of SATA drive</t>
   </si>
 </sst>
 </file>
@@ -528,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M16"/>
+  <dimension ref="B3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,7 +655,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8">
-        <f t="shared" ref="B8:B15" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
+        <f t="shared" ref="B8:B20" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
         <v>2</v>
       </c>
       <c r="C8">
@@ -862,6 +886,10 @@
       </c>
     </row>
     <row r="16" spans="2:13">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="C16">
         <v>10</v>
       </c>
@@ -876,19 +904,140 @@
       </c>
       <c r="G16" s="5">
         <v>82566</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16:L19" si="3">K16*$K$4</f>
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M19" si="4">L16*J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="5">
+        <v>471554001</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20" si="5">K20*$K$4</f>
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="6">L20*J20</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:B7 B8:B15">
+  <conditionalFormatting sqref="A7:B7 B8:B20">
     <cfRule type="expression" priority="2">
       <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B15">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="B7:B20">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -144,23 +144,131 @@
     <t>Winbond</t>
   </si>
   <si>
-    <t>16Mbit W25X16BV EEPROM</t>
-  </si>
-  <si>
-    <t>W25X16BVDAI</t>
-  </si>
-  <si>
     <t>SATA Data Connector</t>
   </si>
   <si>
     <t>Connector for Signals of SATA drive</t>
+  </si>
+  <si>
+    <t>Web Link</t>
+  </si>
+  <si>
+    <t>http://www.silego.com/store/product_info.php?cPath=24_30&amp;products_id=150</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Must order qty 10 @ $5.00 ea for total of $50.00</t>
+  </si>
+  <si>
+    <t>SLG505YC256BT</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM7359-ND</t>
+  </si>
+  <si>
+    <t>WM7359-ND</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM9003-ND</t>
+  </si>
+  <si>
+    <t>WM9003-ND</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM19104-ND</t>
+  </si>
+  <si>
+    <t>WM19104-ND</t>
+  </si>
+  <si>
+    <t>67800-5005</t>
+  </si>
+  <si>
+    <t>W25Q16BVSSIG-ND</t>
+  </si>
+  <si>
+    <t>W25Q16BV</t>
+  </si>
+  <si>
+    <t>16Mbit W25Q16BV EEPROM</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=W25Q16BVSSIG-ND</t>
+  </si>
+  <si>
+    <t>Other Charges</t>
+  </si>
+  <si>
+    <t>Connector for 10/100/1000 network</t>
+  </si>
+  <si>
+    <t>Dual port stack USB 2.0 through hole connecotr</t>
+  </si>
+  <si>
+    <t>Tyco</t>
+  </si>
+  <si>
+    <t>5787745-2-ND</t>
+  </si>
+  <si>
+    <t>5787745-1</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=5787745-2-ND</t>
+  </si>
+  <si>
+    <t>507-1425-ND</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=507-1425-ND</t>
+  </si>
+  <si>
+    <t>0826-1A1T-23-F</t>
+  </si>
+  <si>
+    <t>Bel Fuse</t>
+  </si>
+  <si>
+    <t>RU82566DM S L95J</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>16 week lead time</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16819115056</t>
+  </si>
+  <si>
+    <t>NewEgg</t>
+  </si>
+  <si>
+    <t>N82E16819115056</t>
+  </si>
+  <si>
+    <t>E7500</t>
+  </si>
+  <si>
+    <t>Core2 Duo 2.93GHz 3MB L2 65W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +300,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,10 +352,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,11 +374,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M20"/>
+  <dimension ref="B3:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,31 +690,34 @@
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="21.75" thickBot="1">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="2:16" ht="21.75" thickBot="1">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1">
-      <c r="J4" s="2" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1">
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:16">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,19 +740,28 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:13">
+      <c r="P6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7">
         <f>IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
         <v>1</v>
@@ -641,19 +775,21 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7"/>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <f>K7*$K$4</f>
+      <c r="M7">
+        <f>L7*$L$4</f>
         <v>4</v>
       </c>
-      <c r="M7">
-        <f>L7*J7</f>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <f>M7*K7+N7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:16">
       <c r="B8">
         <f t="shared" ref="B8:B20" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
         <v>2</v>
@@ -673,19 +809,21 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7"/>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L15" si="1">K8*$K$4</f>
+      <c r="M8">
+        <f t="shared" ref="M8:M15" si="1">L8*$L$4</f>
         <v>4</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M15" si="2">L8*J8</f>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <f t="shared" ref="O8:O20" si="2">M8*K8+N8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:16">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -705,22 +843,24 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7"/>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:16">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -737,109 +877,154 @@
       <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="K10">
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="7">
+        <v>30</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5.09</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <f t="shared" si="2"/>
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4">
+        <v>475053305</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5.03</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <f t="shared" si="2"/>
+        <v>40.24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13">
+        <f>IF(E13="",0,IF(F13="",1,IF(H17="",2,3)))</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4">
-        <v>475053305</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:16">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -850,22 +1035,24 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7"/>
+      <c r="L14">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M14">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:16">
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -873,22 +1060,44 @@
       <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="K15">
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="7">
+        <v>124.99</v>
+      </c>
+      <c r="L15">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M15">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
+        <v>499.96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -905,54 +1114,83 @@
       <c r="G16" s="5">
         <v>82566</v>
       </c>
-      <c r="K16">
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7">
+        <v>6.69</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <f t="shared" ref="L16:L19" si="3">K16*$K$4</f>
+      <c r="M16">
+        <f t="shared" ref="M16:M19" si="3">L16*$L$4</f>
         <v>4</v>
       </c>
-      <c r="M16">
-        <f t="shared" ref="M16:M19" si="4">L16*J16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
+        <f t="shared" si="2"/>
+        <v>26.76</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="5">
-        <v>471554001</v>
-      </c>
-      <c r="K17">
+      <c r="G17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1.012</v>
+      </c>
+      <c r="L17">
         <v>5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
+        <f t="shared" si="2"/>
+        <v>20.240000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -960,22 +1198,44 @@
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="K18">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="7">
+        <v>4.92</v>
+      </c>
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7">
+        <f t="shared" si="2"/>
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -983,22 +1243,44 @@
       <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="K19">
-        <v>12</v>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2.4500000000000002</v>
       </c>
       <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
+        <v>24</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7">
+        <f t="shared" si="2"/>
+        <v>58.800000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -1007,24 +1289,43 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <f t="shared" ref="L20" si="5">K20*$K$4</f>
+      <c r="M20">
+        <f t="shared" ref="M20" si="4">L20*$L$4</f>
         <v>4</v>
       </c>
-      <c r="M20">
-        <f t="shared" ref="M20" si="6">L20*J20</f>
-        <v>0</v>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7">
+        <f t="shared" si="2"/>
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="7">
+        <f>SUM(O7:O34)</f>
+        <v>810.19999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1046,8 +1347,18 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J10" r:id="rId1"/>
+    <hyperlink ref="J11" r:id="rId2"/>
+    <hyperlink ref="J12" r:id="rId3"/>
+    <hyperlink ref="J17" r:id="rId4"/>
+    <hyperlink ref="J20" r:id="rId5"/>
+    <hyperlink ref="J19" r:id="rId6"/>
+    <hyperlink ref="J18" r:id="rId7"/>
+    <hyperlink ref="J15" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -117,9 +117,6 @@
     <t>DDR3 800 1GB Module</t>
   </si>
   <si>
-    <t>Main memory</t>
-  </si>
-  <si>
     <t>Video Card</t>
   </si>
   <si>
@@ -259,6 +256,39 @@
   </si>
   <si>
     <t>Core2 Duo 2.93GHz 3MB L2 65W</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16820148147</t>
+  </si>
+  <si>
+    <t>N82E1682014814</t>
+  </si>
+  <si>
+    <t>CT12864BA1067</t>
+  </si>
+  <si>
+    <t>Crucial</t>
+  </si>
+  <si>
+    <t>1GB DDR3 1066MHz SDRAM</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16814127473</t>
+  </si>
+  <si>
+    <t>N82E16814127473</t>
+  </si>
+  <si>
+    <t>N8400GS-D256H</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>GeForce 8400 GS 256MB 64-bit DDR2 PCI Express 2.0 x16</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -359,7 +389,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,6 +409,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:P35"/>
+  <dimension ref="A3:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -695,11 +726,11 @@
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="21.75" thickBot="1">
+    <row r="3" spans="1:16" ht="21.75" thickBot="1">
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
@@ -709,7 +740,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
@@ -717,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="1:16">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -740,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>8</v>
@@ -752,17 +783,20 @@
         <v>13</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="9">
         <f>IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
         <v>1</v>
       </c>
@@ -775,7 +809,9 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>30</v>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -786,11 +822,14 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7">
         <f>M7*K7+N7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="9">
         <f t="shared" ref="B8:B20" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
         <v>2</v>
       </c>
@@ -809,7 +848,9 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <v>50</v>
+      </c>
       <c r="L8">
         <v>1</v>
       </c>
@@ -820,11 +861,14 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7">
         <f t="shared" ref="O8:O20" si="2">M8*K8+N8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -843,7 +887,9 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
       <c r="L9">
         <v>1</v>
       </c>
@@ -854,11 +900,11 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -881,10 +927,10 @@
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7">
         <v>5</v>
@@ -904,11 +950,11 @@
         <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -928,13 +974,13 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7">
         <v>5.09</v>
@@ -952,8 +998,8 @@
         <v>81.44</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12">
+    <row r="12" spans="1:16">
+      <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -973,13 +1019,13 @@
         <v>475053305</v>
       </c>
       <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="K12" s="7">
         <v>5.03</v>
@@ -997,10 +1043,10 @@
         <v>40.24</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13">
-        <f>IF(E13="",0,IF(F13="",1,IF(H17="",2,3)))</f>
-        <v>1</v>
+    <row r="13" spans="1:16">
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1009,7 +1055,25 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7">
+        <v>23.99</v>
       </c>
       <c r="L13">
         <v>4</v>
@@ -1021,21 +1085,41 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14">
+        <v>383.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7">
+        <v>27</v>
+      </c>
       <c r="L14">
         <v>1</v>
       </c>
@@ -1046,11 +1130,14 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1058,25 +1145,25 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
         <v>77</v>
       </c>
-      <c r="I15" t="s">
-        <v>78</v>
-      </c>
       <c r="J15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="7">
         <v>124.99</v>
@@ -1094,8 +1181,11 @@
         <v>499.96</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16">
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1103,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1115,13 +1205,13 @@
         <v>82566</v>
       </c>
       <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
         <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
       </c>
       <c r="K16" s="7">
         <v>6.69</v>
@@ -1139,11 +1229,11 @@
         <v>26.76</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17">
+      <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1151,25 +1241,25 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
         <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7">
         <v>1.012</v>
@@ -1188,7 +1278,7 @@
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18">
+      <c r="B18" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1196,25 +1286,25 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="K18" s="7">
         <v>4.92</v>
@@ -1233,7 +1323,7 @@
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19">
+      <c r="B19" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1241,25 +1331,25 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="K19" s="7">
         <v>2.4500000000000002</v>
@@ -1278,7 +1368,7 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20">
+      <c r="B20" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1286,25 +1376,25 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="K20" s="7">
         <v>3.27</v>
@@ -1325,7 +1415,7 @@
     <row r="35" spans="15:15">
       <c r="O35" s="7">
         <f>SUM(O7:O34)</f>
-        <v>810.19999999999993</v>
+        <v>1742.04</v>
       </c>
     </row>
   </sheetData>
@@ -1356,9 +1446,11 @@
     <hyperlink ref="J19" r:id="rId6"/>
     <hyperlink ref="J18" r:id="rId7"/>
     <hyperlink ref="J15" r:id="rId8"/>
+    <hyperlink ref="J13" r:id="rId9"/>
+    <hyperlink ref="J14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="21720" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -289,6 +289,24 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Clock Crystal</t>
+  </si>
+  <si>
+    <t>14.318MHz Parallel Resonance Crystal</t>
+  </si>
+  <si>
+    <t>631-1015-1-ND</t>
+  </si>
+  <si>
+    <t>FOXSDLF/143-20</t>
+  </si>
+  <si>
+    <t>Fox Electronics</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=631-1015-1-ND</t>
   </si>
 </sst>
 </file>
@@ -406,10 +424,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -708,7 +726,7 @@
   <dimension ref="A3:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,14 +749,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="21.75" thickBot="1">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="K4" s="2" t="s">
@@ -796,7 +814,7 @@
       <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f>IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
         <v>1</v>
       </c>
@@ -829,8 +847,8 @@
       <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="9">
-        <f t="shared" ref="B8:B20" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
+      <c r="B8" s="8">
+        <f t="shared" ref="B8:B21" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
         <v>2</v>
       </c>
       <c r="C8">
@@ -860,7 +878,7 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7">
-        <f t="shared" ref="O8:O20" si="2">M8*K8+N8</f>
+        <f t="shared" ref="O8:O21" si="2">M8*K8+N8</f>
         <v>200</v>
       </c>
     </row>
@@ -868,7 +886,7 @@
       <c r="A9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -904,7 +922,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -954,7 +972,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -999,7 +1017,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1044,7 +1062,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1089,7 +1107,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1137,7 +1155,7 @@
       <c r="A15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1185,7 +1203,7 @@
       <c r="A16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1233,7 +1251,7 @@
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1278,7 +1296,7 @@
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1323,7 +1341,7 @@
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1368,7 +1386,7 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1403,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20" si="4">L20*$L$4</f>
+        <f t="shared" ref="M20:M21" si="4">L20*$L$4</f>
         <v>4</v>
       </c>
       <c r="N20" s="7"/>
@@ -1412,22 +1430,66 @@
         <v>13.08</v>
       </c>
     </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="2"/>
+        <v>2.48</v>
+      </c>
+    </row>
     <row r="35" spans="15:15">
       <c r="O35" s="7">
         <f>SUM(O7:O34)</f>
-        <v>1742.04</v>
+        <v>1744.52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:B7 B8:B20">
+  <conditionalFormatting sqref="A7:B7 B8:B21">
     <cfRule type="expression" priority="2">
       <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B20">
+  <conditionalFormatting sqref="B7:B21">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1448,9 +1510,10 @@
     <hyperlink ref="J15" r:id="rId8"/>
     <hyperlink ref="J13" r:id="rId9"/>
     <hyperlink ref="J14" r:id="rId10"/>
+    <hyperlink ref="J21" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="CART_ITEM" localSheetId="0">Sheet1!$G$22</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -307,6 +310,39 @@
   </si>
   <si>
     <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=631-1015-1-ND</t>
+  </si>
+  <si>
+    <t>Hard Drive</t>
+  </si>
+  <si>
+    <t>250GB SATAII</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>HTS545025B9A300</t>
+  </si>
+  <si>
+    <t>N82E16822145255</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16822145255</t>
+  </si>
+  <si>
+    <t>Discount ends 8/25</t>
+  </si>
+  <si>
+    <t>CPU Fan</t>
+  </si>
+  <si>
+    <t>24 pin Power Connector</t>
+  </si>
+  <si>
+    <t>12v Power Connector</t>
+  </si>
+  <si>
+    <t>Fan Connectors</t>
   </si>
 </sst>
 </file>
@@ -725,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,7 +884,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" ref="B8:B21" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
+        <f t="shared" ref="B8:B26" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
         <v>2</v>
       </c>
       <c r="C8">
@@ -878,7 +914,7 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7">
-        <f t="shared" ref="O8:O21" si="2">M8*K8+N8</f>
+        <f t="shared" ref="O8:O22" si="2">M8*K8+N8</f>
         <v>200</v>
       </c>
     </row>
@@ -1250,7 +1286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:16">
       <c r="B17" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1295,7 +1331,7 @@
         <v>20.240000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:16">
       <c r="B18" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1340,7 +1376,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:16">
       <c r="B19" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1385,7 +1421,7 @@
         <v>58.800000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:16">
       <c r="B20" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1421,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M21" si="4">L20*$L$4</f>
+        <f t="shared" ref="M20:M22" si="4">L20*$L$4</f>
         <v>4</v>
       </c>
       <c r="N20" s="7"/>
@@ -1430,7 +1466,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:16">
       <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1474,22 +1510,165 @@
         <v>2.48</v>
       </c>
     </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="7">
+        <v>34.99</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="2"/>
+        <v>139.96</v>
+      </c>
+      <c r="P22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M26" si="5">L23*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" ref="O23:O26" si="6">M23*K23+N23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="15:15">
       <c r="O35" s="7">
         <f>SUM(O7:O34)</f>
-        <v>1744.52</v>
+        <v>1884.48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:B7 B8:B21">
+  <conditionalFormatting sqref="A7:B7 B8:B26">
     <cfRule type="expression" priority="2">
       <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B21">
+  <conditionalFormatting sqref="B7:B26">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1511,9 +1690,10 @@
     <hyperlink ref="J13" r:id="rId9"/>
     <hyperlink ref="J14" r:id="rId10"/>
     <hyperlink ref="J21" r:id="rId11"/>
+    <hyperlink ref="J22" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="21720" windowHeight="9780"/>
@@ -12,14 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$P$6</definedName>
     <definedName name="CART_ITEM" localSheetId="0">Sheet1!$G$22</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -343,6 +344,51 @@
   </si>
   <si>
     <t>Fan Connectors</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16835150088</t>
+  </si>
+  <si>
+    <t>N82E16835150088</t>
+  </si>
+  <si>
+    <t>8WT15-38</t>
+  </si>
+  <si>
+    <t>MASSCOOL</t>
+  </si>
+  <si>
+    <t>2400RPM</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM3863-ND</t>
+  </si>
+  <si>
+    <t>WM3863-ND</t>
+  </si>
+  <si>
+    <t>39-29-9243</t>
+  </si>
+  <si>
+    <t>CONN HEADER 24POS 4.2MM VERT TIN</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16817170018</t>
+  </si>
+  <si>
+    <t>LOGISYS</t>
+  </si>
+  <si>
+    <t>PS480E12</t>
+  </si>
+  <si>
+    <t>N82E16817170018</t>
+  </si>
+  <si>
+    <t>480W ATX12V</t>
   </si>
 </sst>
 </file>
@@ -393,12 +439,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -443,7 +513,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,18 +522,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:P35"/>
+  <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -781,18 +869,34 @@
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:16">
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5">
+        <f>SUM(O8:O14)</f>
+        <v>235.96000000000004</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="5">
+        <f>SUM(O15:O18)</f>
+        <v>1131.76</v>
+      </c>
+    </row>
     <row r="3" spans="1:16" ht="21.75" thickBot="1">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="K4" s="2" t="s">
@@ -846,721 +950,721 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" s="22" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="23">
         <f>IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="22">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="24">
+        <v>82566</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="25">
+        <v>6.69</v>
+      </c>
+      <c r="L7" s="22">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="M7" s="22">
+        <f>L7*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25">
+        <f>M7*K7+N7</f>
+        <v>26.76</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1">
+      <c r="B8" s="9">
+        <f>IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="11">
+        <v>5.09</v>
+      </c>
+      <c r="L8" s="8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="8">
+        <f>L8*$L$4</f>
+        <v>16</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
+        <f>M8*K8+N8</f>
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1">
+      <c r="B9" s="9">
+        <f>IF(E9="",0,IF(F9="",1,IF(H9="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12">
+        <v>475053305</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="11">
+        <v>5.03</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <f>L9*$L$4</f>
+        <v>8</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11">
+        <f>M9*K9+N9</f>
+        <v>40.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="8" customFormat="1">
+      <c r="B10" s="9">
+        <f>IF(E10="",0,IF(F10="",1,IF(H10="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1.012</v>
+      </c>
+      <c r="L10" s="8">
+        <v>5</v>
+      </c>
+      <c r="M10" s="8">
+        <f>L10*$L$4</f>
+        <v>20</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
+        <f>M10*K10+N10</f>
+        <v>20.240000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="8" customFormat="1">
+      <c r="B11" s="9">
+        <f>IF(E11="",0,IF(F11="",1,IF(H11="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4.92</v>
+      </c>
+      <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="M11" s="8">
+        <f>L11*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11">
+        <f>M11*K11+N11</f>
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1">
+      <c r="B12" s="9">
+        <f>IF(E12="",0,IF(F12="",1,IF(H12="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L12" s="8">
+        <v>6</v>
+      </c>
+      <c r="M12" s="8">
+        <f>L12*$L$4</f>
+        <v>24</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
+        <f>M12*K12+N12</f>
+        <v>58.800000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1">
+      <c r="B13" s="9">
+        <f>IF(E13="",0,IF(F13="",1,IF(H13="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="11">
+        <v>3.27</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <f>L13*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
+        <f>M13*K13+N13</f>
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1">
+      <c r="B14" s="9">
+        <f>IF(E14="",0,IF(F14="",1,IF(H14="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <f>L14*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="11">
+        <f>M14*K14+N14</f>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="14" customFormat="1">
+      <c r="B15" s="15">
+        <f>IF(E15="",0,IF(F15="",1,IF(H15="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>7</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="17">
+        <v>23.99</v>
+      </c>
+      <c r="L15" s="14">
+        <v>4</v>
+      </c>
+      <c r="M15" s="14">
+        <f>L15*$L$4</f>
+        <v>16</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17">
+        <f>M15*K15+N15</f>
+        <v>383.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="14" customFormat="1">
+      <c r="B16" s="15">
+        <f>IF(E16="",0,IF(F16="",1,IF(H16="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="14">
+        <v>8</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="17">
+        <v>27</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14">
+        <f>L16*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
+        <f>M16*K16+N16</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="14" customFormat="1">
+      <c r="A17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="15">
+        <f>IF(E17="",0,IF(F17="",1,IF(H17="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C17" s="14">
+        <v>9</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="17">
+        <v>124.99</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
+        <f>L17*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17">
+        <f>M17*K17+N17</f>
+        <v>499.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="14" customFormat="1">
+      <c r="B18" s="15">
+        <f>IF(E18="",0,IF(F18="",1,IF(H18="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="14">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="17">
+        <v>34.99</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14">
+        <f>L18*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O18" s="17">
+        <f>M18*K18+N18</f>
+        <v>139.96</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="18" customFormat="1">
+      <c r="B19" s="19">
+        <f>IF(E19="",0,IF(F19="",1,IF(H19="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="18">
+        <v>4</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="21">
+        <v>5</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1</v>
+      </c>
+      <c r="M19" s="18">
+        <f>L19*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N19" s="21">
+        <v>30</v>
+      </c>
+      <c r="O19" s="21">
+        <f>M19*K19+N19</f>
+        <v>50</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="6">
+        <f>IF(E20="",0,IF(F20="",1,IF(H20="",2,3)))</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K20" s="5">
         <v>30</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <f>L7*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7">
-        <f>M7*K7+N7</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="8">
-        <f t="shared" ref="B8:B26" si="0">IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="7">
-        <v>50</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M15" si="1">L8*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
-        <f t="shared" ref="O8:O22" si="2">M8*K8+N8</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="7">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>30</v>
-      </c>
-      <c r="O10" s="7">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="P10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="7">
-        <v>5.09</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7">
-        <f t="shared" si="2"/>
-        <v>81.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4">
-        <v>475053305</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="7">
-        <v>5.03</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
-        <f t="shared" si="2"/>
-        <v>40.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="7">
-        <v>23.99</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <f t="shared" si="2"/>
-        <v>383.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="7">
-        <v>27</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="7">
-        <v>124.99</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7">
-        <f t="shared" si="2"/>
-        <v>499.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="5">
-        <v>82566</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="7">
-        <v>6.69</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ref="M16:M19" si="3">L16*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7">
-        <f t="shared" si="2"/>
-        <v>26.76</v>
-      </c>
-      <c r="P16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1.012</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7">
-        <f t="shared" si="2"/>
-        <v>20.240000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="7">
-        <v>4.92</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7">
-        <f t="shared" si="2"/>
-        <v>19.68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="7">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7">
-        <f t="shared" si="2"/>
-        <v>58.800000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="7">
-        <v>3.27</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M22" si="4">L20*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7">
-        <f t="shared" si="2"/>
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>L20*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5">
+        <f>M20*K20+N20</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="6">
+        <f>IF(E21="",0,IF(F21="",1,IF(H21="",2,3)))</f>
+        <v>2</v>
       </c>
       <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="5">
         <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0.62</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O21" s="7">
-        <f t="shared" si="2"/>
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="8">
-        <f t="shared" si="0"/>
+        <f>L21*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5">
+        <f>M21*K21+N21</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="6">
+        <f>IF(E22="",0,IF(F22="",1,IF(H22="",2,3)))</f>
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>99</v>
-      </c>
       <c r="G22" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="7">
-        <v>34.99</v>
+        <v>21</v>
+      </c>
+      <c r="K22" s="5">
+        <v>30</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O22" s="7">
-        <f t="shared" si="2"/>
-        <v>139.96</v>
-      </c>
-      <c r="P22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>L22*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5">
+        <f>M22*K22+N22</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="B23" s="6">
+        <f>IF(E23="",0,IF(F23="",1,IF(H23="",2,3)))</f>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -1568,23 +1672,43 @@
       <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="5">
+        <v>8.99</v>
+      </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M26" si="5">L23*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="O23" s="7">
-        <f t="shared" ref="O23:O26" si="6">M23*K23+N23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>L23*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O23" s="5">
+        <f>M23*K23+N23</f>
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="B24" s="6">
+        <f>IF(E24="",0,IF(F24="",1,IF(H24="",2,3)))</f>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>19</v>
@@ -1592,22 +1716,42 @@
       <c r="D24" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="5">
+        <v>4.3099999999999996</v>
+      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O24" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="8">
-        <f t="shared" si="0"/>
+        <f>L24*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O24" s="5">
+        <f>M24*K24+N24</f>
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="6">
+        <f>IF(E25="",0,IF(F25="",1,IF(H25="",2,3)))</f>
         <v>0</v>
       </c>
       <c r="C25">
@@ -1616,22 +1760,22 @@
       <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="5"/>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O25" s="7">
-        <f t="shared" si="6"/>
+        <f>L25*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O25" s="5">
+        <f>M25*K25+N25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="8">
-        <f t="shared" si="0"/>
+    <row r="26" spans="1:16">
+      <c r="B26" s="6">
+        <f>IF(E26="",0,IF(F26="",1,IF(H26="",2,3)))</f>
         <v>0</v>
       </c>
       <c r="C26">
@@ -1640,35 +1784,84 @@
       <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="5"/>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="O26" s="7">
-        <f t="shared" si="6"/>
+        <f>L26*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O26" s="5">
+        <f>M26*K26+N26</f>
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:16">
+      <c r="B27" s="6">
+        <f>IF(E27="",0,IF(F27="",1,IF(H27="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="5">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f>L27*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="O27" s="5">
+        <f>M27*K27+N27</f>
+        <v>67.959999999999994</v>
+      </c>
+    </row>
     <row r="35" spans="15:15">
-      <c r="O35" s="7">
+      <c r="O35" s="5">
         <f>SUM(O7:O34)</f>
-        <v>1884.48</v>
+        <v>2005.64</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A6:P6">
+    <sortState ref="A7:P26">
+      <sortCondition ref="H6"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:B7 B8:B26">
+  <conditionalFormatting sqref="A7:B7 B8:B27">
     <cfRule type="expression" priority="2">
       <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B26">
+  <conditionalFormatting sqref="B7:B27">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1679,21 +1872,24 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
-    <hyperlink ref="J11" r:id="rId2"/>
-    <hyperlink ref="J12" r:id="rId3"/>
-    <hyperlink ref="J17" r:id="rId4"/>
-    <hyperlink ref="J20" r:id="rId5"/>
-    <hyperlink ref="J19" r:id="rId6"/>
-    <hyperlink ref="J18" r:id="rId7"/>
-    <hyperlink ref="J15" r:id="rId8"/>
-    <hyperlink ref="J13" r:id="rId9"/>
-    <hyperlink ref="J14" r:id="rId10"/>
-    <hyperlink ref="J21" r:id="rId11"/>
-    <hyperlink ref="J22" r:id="rId12"/>
+    <hyperlink ref="J19" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J9" r:id="rId3"/>
+    <hyperlink ref="J10" r:id="rId4"/>
+    <hyperlink ref="J13" r:id="rId5"/>
+    <hyperlink ref="J12" r:id="rId6"/>
+    <hyperlink ref="J11" r:id="rId7"/>
+    <hyperlink ref="J17" r:id="rId8"/>
+    <hyperlink ref="J15" r:id="rId9"/>
+    <hyperlink ref="J16" r:id="rId10"/>
+    <hyperlink ref="J14" r:id="rId11"/>
+    <hyperlink ref="J18" r:id="rId12"/>
+    <hyperlink ref="J23" r:id="rId13"/>
+    <hyperlink ref="J27" r:id="rId14"/>
+    <hyperlink ref="J24" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>480W ATX12V</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM3854-ND</t>
+  </si>
+  <si>
+    <t>WM3854-ND</t>
+  </si>
+  <si>
+    <t>39-29-9043</t>
+  </si>
+  <si>
+    <t>CONN HEADER 4POS 4.2MM VERT TIN</t>
   </si>
 </sst>
 </file>
@@ -525,9 +537,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -552,6 +561,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -849,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -889,14 +901,14 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="21.75" thickBot="1">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="K4" s="2" t="s">
@@ -950,603 +962,603 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="22" customFormat="1">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:16" s="21" customFormat="1">
+      <c r="A7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="23">
-        <f>IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
+      <c r="B7" s="22">
+        <f t="shared" ref="B7:B27" si="0">IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
         <v>3</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>10</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>82566</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>6.69</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="21">
         <v>1</v>
       </c>
-      <c r="M7" s="22">
-        <f>L7*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25">
-        <f>M7*K7+N7</f>
+      <c r="M7" s="21">
+        <f t="shared" ref="M7:M27" si="1">L7*$L$4</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24">
+        <f t="shared" ref="O7:O27" si="2">M7*K7+N7</f>
         <v>26.76</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1">
-      <c r="B8" s="9">
-        <f>IF(E8="",0,IF(F8="",1,IF(H8="",2,3)))</f>
+    <row r="8" spans="1:16" s="7" customFormat="1">
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>5.09</v>
       </c>
-      <c r="L8" s="8">
-        <v>4</v>
-      </c>
-      <c r="M8" s="8">
-        <f>L8*$L$4</f>
+      <c r="L8" s="7">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11">
-        <f>M8*K8+N8</f>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10">
+        <f t="shared" si="2"/>
         <v>81.44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1">
-      <c r="B9" s="9">
-        <f>IF(E9="",0,IF(F9="",1,IF(H9="",2,3)))</f>
+    <row r="9" spans="1:16" s="7" customFormat="1">
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>475053305</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>5.03</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>2</v>
       </c>
-      <c r="M9" s="8">
-        <f>L9*$L$4</f>
+      <c r="M9" s="7">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
-        <f>M9*K9+N9</f>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10">
+        <f t="shared" si="2"/>
         <v>40.24</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="8" customFormat="1">
-      <c r="B10" s="9">
-        <f>IF(E10="",0,IF(F10="",1,IF(H10="",2,3)))</f>
+    <row r="10" spans="1:16" s="7" customFormat="1">
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>1.012</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>5</v>
       </c>
-      <c r="M10" s="8">
-        <f>L10*$L$4</f>
+      <c r="M10" s="7">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11">
-        <f>M10*K10+N10</f>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10">
+        <f t="shared" si="2"/>
         <v>20.240000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="8" customFormat="1">
-      <c r="B11" s="9">
-        <f>IF(E11="",0,IF(F11="",1,IF(H11="",2,3)))</f>
+    <row r="11" spans="1:16" s="7" customFormat="1">
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>4.92</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>1</v>
       </c>
-      <c r="M11" s="8">
-        <f>L11*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11">
-        <f>M11*K11+N11</f>
+      <c r="M11" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10">
+        <f t="shared" si="2"/>
         <v>19.68</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1">
-      <c r="B12" s="9">
-        <f>IF(E12="",0,IF(F12="",1,IF(H12="",2,3)))</f>
+    <row r="12" spans="1:16" s="7" customFormat="1">
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>6</v>
       </c>
-      <c r="M12" s="8">
-        <f>L12*$L$4</f>
+      <c r="M12" s="7">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11">
-        <f>M12*K12+N12</f>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10">
+        <f t="shared" si="2"/>
         <v>58.800000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1">
-      <c r="B13" s="9">
-        <f>IF(E13="",0,IF(F13="",1,IF(H13="",2,3)))</f>
+    <row r="13" spans="1:16" s="7" customFormat="1">
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>15</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>3.27</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
-      <c r="M13" s="8">
-        <f>L13*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11">
-        <f>M13*K13+N13</f>
+      <c r="M13" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10">
+        <f t="shared" si="2"/>
         <v>13.08</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1">
-      <c r="B14" s="9">
-        <f>IF(E14="",0,IF(F14="",1,IF(H14="",2,3)))</f>
+    <row r="14" spans="1:16" s="7" customFormat="1">
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>16</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>0.62</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>1</v>
       </c>
-      <c r="M14" s="8">
-        <f>L14*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="O14" s="11">
-        <f>M14*K14+N14</f>
+      <c r="M14" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="2"/>
         <v>2.48</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="14" customFormat="1">
-      <c r="B15" s="15">
-        <f>IF(E15="",0,IF(F15="",1,IF(H15="",2,3)))</f>
+    <row r="15" spans="1:16" s="13" customFormat="1">
+      <c r="B15" s="14">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>7</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>23.99</v>
       </c>
-      <c r="L15" s="14">
-        <v>4</v>
-      </c>
-      <c r="M15" s="14">
-        <f>L15*$L$4</f>
+      <c r="L15" s="13">
+        <v>4</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17">
-        <f>M15*K15+N15</f>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
+        <f t="shared" si="2"/>
         <v>383.84</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="14" customFormat="1">
-      <c r="B16" s="15">
-        <f>IF(E16="",0,IF(F16="",1,IF(H16="",2,3)))</f>
+    <row r="16" spans="1:16" s="13" customFormat="1">
+      <c r="B16" s="14">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>8</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="16">
         <v>27</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>1</v>
       </c>
-      <c r="M16" s="14">
-        <f>L16*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
-        <f>M16*K16+N16</f>
+      <c r="M16" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="14" customFormat="1">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:16" s="13" customFormat="1">
+      <c r="A17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="15">
-        <f>IF(E17="",0,IF(F17="",1,IF(H17="",2,3)))</f>
+      <c r="B17" s="14">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>9</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>124.99</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>1</v>
       </c>
-      <c r="M17" s="14">
-        <f>L17*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17">
-        <f>M17*K17+N17</f>
+      <c r="M17" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
+        <f t="shared" si="2"/>
         <v>499.96</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="14" customFormat="1">
-      <c r="B18" s="15">
-        <f>IF(E18="",0,IF(F18="",1,IF(H18="",2,3)))</f>
+    <row r="18" spans="1:16" s="13" customFormat="1">
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>17</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="16">
         <v>34.99</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <v>1</v>
       </c>
-      <c r="M18" s="14">
-        <f>L18*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="O18" s="17">
-        <f>M18*K18+N18</f>
+      <c r="M18" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="2"/>
         <v>139.96</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="18" customFormat="1">
-      <c r="B19" s="19">
-        <f>IF(E19="",0,IF(F19="",1,IF(H19="",2,3)))</f>
+    <row r="19" spans="1:16" s="17" customFormat="1">
+      <c r="B19" s="18">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C19" s="18">
-        <v>4</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="17">
+        <v>4</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <v>5</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="17">
         <v>1</v>
       </c>
-      <c r="M19" s="18">
-        <f>L19*$L$4</f>
-        <v>4</v>
-      </c>
-      <c r="N19" s="21">
+      <c r="M19" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="20">
         <v>30</v>
       </c>
-      <c r="O19" s="21">
-        <f>M19*K19+N19</f>
+      <c r="O19" s="20">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1555,7 +1567,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="6">
-        <f>IF(E20="",0,IF(F20="",1,IF(H20="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20">
@@ -1574,12 +1586,12 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <f>L20*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5">
-        <f>M20*K20+N20</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
@@ -1588,7 +1600,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="6">
-        <f>IF(E21="",0,IF(F21="",1,IF(H21="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C21">
@@ -1613,12 +1625,12 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <f>L21*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5">
-        <f>M21*K21+N21</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -1627,7 +1639,7 @@
         <v>90</v>
       </c>
       <c r="B22" s="6">
-        <f>IF(E22="",0,IF(F22="",1,IF(H22="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C22">
@@ -1652,18 +1664,18 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <f>L22*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5">
-        <f>M22*K22+N22</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="B23" s="6">
-        <f>IF(E23="",0,IF(F23="",1,IF(H23="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C23">
@@ -1697,17 +1709,17 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <f>L23*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O23" s="5">
-        <f>M23*K23+N23</f>
+        <f t="shared" si="2"/>
         <v>35.96</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="6">
-        <f>IF(E24="",0,IF(F24="",1,IF(H24="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C24">
@@ -1741,18 +1753,18 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <f>L24*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O24" s="5">
-        <f>M24*K24+N24</f>
+        <f t="shared" si="2"/>
         <v>17.239999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="6">
-        <f>IF(E25="",0,IF(F25="",1,IF(H25="",2,3)))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -1760,22 +1772,42 @@
       <c r="D25" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <f>L25*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O25" s="5">
-        <f>M25*K25+N25</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="B26" s="6">
-        <f>IF(E26="",0,IF(F26="",1,IF(H26="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C26">
@@ -1789,17 +1821,17 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <f>L26*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O26" s="5">
-        <f>M26*K26+N26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="B27" s="6">
-        <f>IF(E27="",0,IF(F27="",1,IF(H27="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C27">
@@ -1833,18 +1865,18 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <f>L27*$L$4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O27" s="5">
-        <f>M27*K27+N27</f>
+        <f t="shared" si="2"/>
         <v>67.959999999999994</v>
       </c>
     </row>
     <row r="35" spans="15:15">
       <c r="O35" s="5">
         <f>SUM(O7:O34)</f>
-        <v>2005.64</v>
+        <v>2010.0400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1887,9 +1919,10 @@
     <hyperlink ref="J23" r:id="rId13"/>
     <hyperlink ref="J27" r:id="rId14"/>
     <hyperlink ref="J24" r:id="rId15"/>
+    <hyperlink ref="J25" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/trunk/Bill of Materials/BOM.xlsx
+++ b/trunk/Bill of Materials/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="21720" windowHeight="9780"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$P$6</definedName>
     <definedName name="CART_ITEM" localSheetId="0">Sheet1!$G$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="137">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -401,6 +401,36 @@
   </si>
   <si>
     <t>CONN HEADER 4POS 4.2MM VERT TIN</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM4202-ND</t>
+  </si>
+  <si>
+    <t>WM4202-ND</t>
+  </si>
+  <si>
+    <t>22-23-2041</t>
+  </si>
+  <si>
+    <t>CONN HEADER 4POS .100 VERT TIN</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=3M5461-ND</t>
+  </si>
+  <si>
+    <t>3M5461-ND</t>
+  </si>
+  <si>
+    <t>4808-3000-CP</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>SOCKET IC OPEN FRAME 8POS .3"</t>
+  </si>
+  <si>
+    <t>BIOS Socket</t>
   </si>
 </sst>
 </file>
@@ -862,7 +892,7 @@
   <dimension ref="A2:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -967,7 +997,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="22">
-        <f t="shared" ref="B7:B27" si="0">IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
+        <f t="shared" ref="B7:B28" si="0">IF(E7="",0,IF(F7="",1,IF(H7="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C7" s="21">
@@ -1001,12 +1031,12 @@
         <v>1</v>
       </c>
       <c r="M7" s="21">
-        <f t="shared" ref="M7:M27" si="1">L7*$L$4</f>
+        <f t="shared" ref="M7:M28" si="1">L7*$L$4</f>
         <v>4</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24">
-        <f t="shared" ref="O7:O27" si="2">M7*K7+N7</f>
+        <f t="shared" ref="O7:O28" si="2">M7*K7+N7</f>
         <v>26.76</v>
       </c>
       <c r="P7" s="21" t="s">
@@ -1808,7 +1838,7 @@
     <row r="26" spans="1:16">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>21</v>
@@ -1816,17 +1846,37 @@
       <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.41499999999999998</v>
+      </c>
       <c r="L26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1873,10 +1923,54 @@
         <v>67.959999999999994</v>
       </c>
     </row>
+    <row r="28" spans="1:16">
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84</v>
+      </c>
+    </row>
     <row r="35" spans="15:15">
       <c r="O35" s="5">
         <f>SUM(O7:O34)</f>
-        <v>2010.0400000000002</v>
+        <v>2017.5200000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1889,12 +1983,27 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:B7 B8:B27">
+    <cfRule type="expression" priority="4">
+      <formula>"if($E$7="""";true;false)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B27">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
     <cfRule type="expression" priority="2">
       <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B27">
-    <cfRule type="iconSet" priority="6">
+  <conditionalFormatting sqref="B28">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1920,9 +2029,11 @@
     <hyperlink ref="J27" r:id="rId14"/>
     <hyperlink ref="J24" r:id="rId15"/>
     <hyperlink ref="J25" r:id="rId16"/>
+    <hyperlink ref="J26" r:id="rId17"/>
+    <hyperlink ref="J28" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
